--- a/data/flow/VGLT_fund_flow_data.xlsx
+++ b/data/flow/VGLT_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B203"/>
+  <dimension ref="A1:B205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2465,6 +2465,26 @@
         <v>83.349</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>35.09325</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>10.456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
